--- a/Ostatni/Martan.xlsx
+++ b/Ostatni/Martan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shosp\Desktop\Honzik\WEB závěrečná práce\git\sudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42073\OneDrive\Plocha\sudoku\Ostatni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5266CB98-9919-4FD7-B5B8-79E7F3C0A36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798DAA4-A161-46BD-B0C0-F69DFE2B53BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28350" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -329,9 +340,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,6 +362,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,12 +662,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -680,10 +691,10 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -697,7 +708,7 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -709,15 +720,15 @@
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -729,7 +740,7 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -738,10 +749,10 @@
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -753,7 +764,7 @@
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -770,10 +781,10 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -784,10 +795,10 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -796,20 +807,20 @@
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -818,10 +829,10 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -838,10 +849,10 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -855,7 +866,7 @@
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -867,7 +878,7 @@
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -879,7 +890,7 @@
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -888,10 +899,10 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -905,7 +916,7 @@
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -919,7 +930,7 @@
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -928,10 +939,10 @@
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -944,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -960,7 +971,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="10"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>

--- a/Ostatni/Martan.xlsx
+++ b/Ostatni/Martan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42073\OneDrive\Plocha\sudoku\Ostatni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798DAA4-A161-46BD-B0C0-F69DFE2B53BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACEA31A-0ED4-4B69-B3FF-EF725774AC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28350" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,14 +357,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,11 +662,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -705,10 +705,10 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -717,10 +717,10 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -728,7 +728,7 @@
       <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -740,7 +740,7 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -752,7 +752,7 @@
       <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -764,7 +764,7 @@
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -784,7 +784,7 @@
       <c r="C12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
       <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -810,7 +810,7 @@
       <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -820,7 +820,7 @@
       <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -832,7 +832,7 @@
       <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -852,7 +852,7 @@
       <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -878,7 +878,7 @@
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -890,7 +890,7 @@
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -913,10 +913,10 @@
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -930,7 +930,7 @@
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -939,7 +939,7 @@
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="12" t="s">

--- a/Ostatni/Martan.xlsx
+++ b/Ostatni/Martan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42073\OneDrive\Plocha\sudoku\Ostatni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\web1g\zaverPrace\sudoku\sudoku-1\Ostatni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACEA31A-0ED4-4B69-B3FF-EF725774AC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DC7EEA-3544-48AB-8E11-A1093BE10514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28350" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -650,7 +650,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="17"/>
@@ -875,7 +875,7 @@
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="17"/>

--- a/Ostatni/Martan.xlsx
+++ b/Ostatni/Martan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\web1g\zaverPrace\sudoku\sudoku-1\Ostatni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WEB\zaver\git\sudoku\Ostatni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DC7EEA-3544-48AB-8E11-A1093BE10514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9056943-4249-40B1-AD6E-F8B9A237314D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28350" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="32">
   <si>
     <t>HTML</t>
   </si>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="17"/>

--- a/Ostatni/Martan.xlsx
+++ b/Ostatni/Martan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WEB\zaver\git\sudoku\Ostatni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shosp\Desktop\Honzik\WEB závěrečná práce\git\sudoku\Ostatni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9056943-4249-40B1-AD6E-F8B9A237314D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9059A5-8360-4BD6-A89D-8C9C98162148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28350" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>HTML</t>
   </si>
@@ -650,7 +650,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="17"/>
@@ -887,7 +887,7 @@
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="17"/>
@@ -927,7 +927,7 @@
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="17"/>
